--- a/index_percentage.xlsx
+++ b/index_percentage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valentin.perraud\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D33B65B-7EAA-466F-AFB2-200A105785A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D55A75B-64B5-4A7F-8915-2811A530907E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="2360" windowWidth="12210" windowHeight="8990" xr2:uid="{D7C0BD39-63F4-41CD-B070-83F6C51D9129}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D7C0BD39-63F4-41CD-B070-83F6C51D9129}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,22 +41,22 @@
     <t>index</t>
   </si>
   <si>
-    <t>Farming</t>
-  </si>
-  <si>
-    <t>Transformation</t>
-  </si>
-  <si>
-    <t>Emballage</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Supermarket and distribution</t>
-  </si>
-  <si>
-    <t>Consomation</t>
+    <t>packaging</t>
+  </si>
+  <si>
+    <t>transformation</t>
+  </si>
+  <si>
+    <t>farming</t>
+  </si>
+  <si>
+    <t>distribution</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>consumption</t>
   </si>
 </sst>
 </file>
@@ -430,10 +430,10 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -445,7 +445,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -461,7 +461,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,7 +469,7 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -477,7 +477,7 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -490,5 +490,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>